--- a/nr-update-profiles/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/nr-update-profiles/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="274">
   <si>
     <t>Property</t>
   </si>
@@ -54,73 +54,73 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2025-02-05T13:40:24+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Interop'Santé</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Interop'Santé (http://interopsante.org/)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>A complex medication composed of two to many simple médication. The simple medications component are described in as many ingredient.itemReference referencing a Medication resource profiled fr-medication-1.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Compound medication description</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Medication</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Medication</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2025-02-05T13:32:30+00:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Interop'Santé</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>Interop'Santé (http://interopsante.org/)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>A complex medication composed of two to many simple médication. The simple medications component are described in as many ingredient.itemReference referencing a Medication resource profiled fr-medication-1.</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Compound medication description</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Medication</t>
-  </si>
-  <si>
-    <t>Base Definition</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Medication</t>
-  </si>
-  <si>
-    <t>Abstract</t>
   </si>
   <si>
     <t>Derivation</t>
@@ -1072,102 +1072,100 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>13</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>14</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>16</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>24</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>35</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -1359,14 +1357,14 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
@@ -1376,13 +1374,13 @@
         <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s" s="2">
         <v>80</v>
@@ -1396,53 +1394,53 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>78</v>
@@ -1451,7 +1449,7 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>83</v>
@@ -1463,10 +1461,10 @@
         <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -1478,7 +1476,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -1488,10 +1486,10 @@
         <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>88</v>
@@ -1510,50 +1508,50 @@
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>93</v>
@@ -1565,22 +1563,22 @@
         <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1592,7 +1590,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1602,10 +1600,10 @@
         <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>88</v>
@@ -1622,50 +1620,50 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>98</v>
@@ -1677,22 +1675,22 @@
         <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1704,7 +1702,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -1714,7 +1712,7 @@
         <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>88</v>
@@ -1736,50 +1734,50 @@
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>105</v>
@@ -1791,22 +1789,22 @@
         <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -1818,7 +1816,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -1828,13 +1826,13 @@
         <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>107</v>
@@ -1850,26 +1848,26 @@
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
         <v>111</v>
@@ -1881,19 +1879,19 @@
         <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>114</v>
@@ -1905,22 +1903,22 @@
         <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -1942,13 +1940,13 @@
         <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>117</v>
@@ -1964,50 +1962,50 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>121</v>
@@ -2019,22 +2017,22 @@
         <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -2056,13 +2054,13 @@
         <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>125</v>
@@ -2078,50 +2076,50 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>129</v>
@@ -2133,22 +2131,22 @@
         <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -2170,13 +2168,13 @@
         <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>133</v>
@@ -2192,50 +2190,50 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2247,22 +2245,22 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -2284,13 +2282,13 @@
         <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>133</v>
@@ -2308,50 +2306,50 @@
         <v>142</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>143</v>
@@ -2363,22 +2361,22 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -2390,7 +2388,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2400,10 +2398,10 @@
         <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>88</v>
@@ -2422,50 +2420,50 @@
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>144</v>
@@ -2477,13 +2475,13 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>149</v>
@@ -2492,7 +2490,7 @@
         <v>150</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -2504,7 +2502,7 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2514,10 +2512,10 @@
         <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>88</v>
@@ -2538,26 +2536,26 @@
         <v>156</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
         <v>157</v>
@@ -2569,19 +2567,19 @@
         <v>159</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>151</v>
@@ -2593,7 +2591,7 @@
         <v>87</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>99</v>
@@ -2620,7 +2618,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2630,13 +2628,13 @@
         <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>165</v>
@@ -2650,50 +2648,50 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>168</v>
@@ -2705,22 +2703,22 @@
         <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -2742,13 +2740,13 @@
         <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>133</v>
@@ -2764,38 +2762,38 @@
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB14" t="s" s="2">
         <v>172</v>
@@ -2804,7 +2802,7 @@
         <v>173</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>174</v>
@@ -2819,22 +2817,22 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -2846,7 +2844,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2856,10 +2854,10 @@
         <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>88</v>
@@ -2880,50 +2878,50 @@
         <v>181</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>182</v>
@@ -2935,19 +2933,19 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>183</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>184</v>
@@ -2962,7 +2960,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -2972,10 +2970,10 @@
         <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>88</v>
@@ -2996,50 +2994,50 @@
         <v>189</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>190</v>
@@ -3051,19 +3049,19 @@
         <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>191</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>192</v>
@@ -3078,7 +3076,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3088,7 +3086,7 @@
         <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>88</v>
@@ -3110,26 +3108,26 @@
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
         <v>197</v>
@@ -3141,19 +3139,19 @@
         <v>199</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>193</v>
@@ -3165,22 +3163,22 @@
         <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>200</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -3192,7 +3190,7 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3202,10 +3200,10 @@
         <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>88</v>
@@ -3222,50 +3220,50 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>201</v>
@@ -3277,7 +3275,7 @@
         <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>99</v>
@@ -3304,7 +3302,7 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3314,13 +3312,13 @@
         <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>152</v>
@@ -3336,26 +3334,26 @@
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
         <v>213</v>
@@ -3365,19 +3363,19 @@
         <v>214</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>209</v>
@@ -3389,7 +3387,7 @@
         <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>99</v>
@@ -3401,7 +3399,7 @@
         <v>216</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>217</v>
@@ -3416,7 +3414,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3426,10 +3424,10 @@
         <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>88</v>
@@ -3448,50 +3446,50 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>218</v>
@@ -3503,22 +3501,22 @@
         <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>223</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -3530,7 +3528,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3540,13 +3538,13 @@
         <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>225</v>
@@ -3562,50 +3560,50 @@
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>224</v>
@@ -3617,22 +3615,22 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -3644,7 +3642,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3654,13 +3652,13 @@
         <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>165</v>
@@ -3674,50 +3672,50 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>168</v>
@@ -3729,22 +3727,22 @@
         <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
@@ -3766,13 +3764,13 @@
         <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>133</v>
@@ -3788,50 +3786,50 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>175</v>
@@ -3843,22 +3841,22 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -3880,7 +3878,7 @@
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>88</v>
@@ -3904,50 +3902,50 @@
         <v>142</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>236</v>
@@ -3959,22 +3957,22 @@
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -3986,7 +3984,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3996,13 +3994,13 @@
         <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>238</v>
@@ -4018,50 +4016,50 @@
         <v>241</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>237</v>
@@ -4073,7 +4071,7 @@
         <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>99</v>
@@ -4085,7 +4083,7 @@
         <v>242</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>243</v>
@@ -4100,7 +4098,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4110,13 +4108,13 @@
         <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>245</v>
@@ -4132,50 +4130,50 @@
         <v>248</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>244</v>
@@ -4187,22 +4185,22 @@
         <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -4214,7 +4212,7 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4224,13 +4222,13 @@
         <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>251</v>
@@ -4246,50 +4244,50 @@
         <v>254</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>250</v>
@@ -4301,7 +4299,7 @@
         <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>99</v>
@@ -4313,7 +4311,7 @@
         <v>223</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>256</v>
@@ -4328,7 +4326,7 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4338,13 +4336,13 @@
         <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>225</v>
@@ -4358,50 +4356,50 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>257</v>
@@ -4413,7 +4411,7 @@
         <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>99</v>
@@ -4425,10 +4423,10 @@
         <v>260</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
@@ -4440,7 +4438,7 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4450,13 +4448,13 @@
         <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>165</v>
@@ -4470,50 +4468,50 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>168</v>
@@ -4525,22 +4523,22 @@
         <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -4562,13 +4560,13 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>133</v>
@@ -4584,50 +4582,50 @@
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>175</v>
@@ -4639,22 +4637,22 @@
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -4676,7 +4674,7 @@
         <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>88</v>
@@ -4700,50 +4698,50 @@
         <v>142</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>236</v>
@@ -4755,22 +4753,22 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -4782,7 +4780,7 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4792,13 +4790,13 @@
         <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>165</v>
@@ -4812,50 +4810,50 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>264</v>
@@ -4867,7 +4865,7 @@
         <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>99</v>
@@ -4879,7 +4877,7 @@
         <v>149</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>267</v>
@@ -4894,7 +4892,7 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4904,13 +4902,13 @@
         <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>269</v>
@@ -4924,50 +4922,50 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>268</v>
@@ -4979,7 +4977,7 @@
         <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>99</v>
@@ -4991,7 +4989,7 @@
         <v>272</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>273</v>

--- a/nr-update-profiles/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/nr-update-profiles/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T13:40:24+00:00</t>
+    <t>2025-02-05T13:46:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-profiles/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/nr-update-profiles/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T13:46:54+00:00</t>
+    <t>2025-02-05T14:43:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-profiles/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/nr-update-profiles/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T14:43:21+00:00</t>
+    <t>2025-02-05T14:51:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-profiles/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/nr-update-profiles/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T14:51:15+00:00</t>
+    <t>2025-02-05T14:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-profiles/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/nr-update-profiles/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T14:57:31+00:00</t>
+    <t>2025-02-06T08:56:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
